--- a/results.xlsx
+++ b/results.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937DE845-9BD8-46F2-970A-A45F7A54C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,38 +17,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>e = 0.01</t>
   </si>
   <si>
-    <t>nAn(18)</t>
-  </si>
-  <si>
-    <t>nAn(10)</t>
-  </si>
-  <si>
-    <t>nAn(7)</t>
-  </si>
-  <si>
-    <t>0.162433(4)</t>
-  </si>
-  <si>
-    <t>0.162434</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.002600(3)</t>
-  </si>
-  <si>
     <t>x = 0.5</t>
   </si>
   <si>
-    <t>0.002604(1)</t>
-  </si>
-  <si>
-    <t>0.002600(3)</t>
-  </si>
-  <si>
     <t>x = 1</t>
   </si>
   <si>
@@ -64,12 +41,57 @@
   </si>
   <si>
     <t>e = 0.0001</t>
+  </si>
+  <si>
+    <t>0.001563(0)</t>
+  </si>
+  <si>
+    <t>0.040873(1)</t>
+  </si>
+  <si>
+    <t>21.605536(30)</t>
+  </si>
+  <si>
+    <t>1756.094360(135)</t>
+  </si>
+  <si>
+    <t>216762.531250(677)</t>
+  </si>
+  <si>
+    <t>0.002555(1)</t>
+  </si>
+  <si>
+    <t>0.033252(6)</t>
+  </si>
+  <si>
+    <t>21.659803(66)</t>
+  </si>
+  <si>
+    <t>1755.690552(292)</t>
+  </si>
+  <si>
+    <t>1755.690552(1460)</t>
+  </si>
+  <si>
+    <t>0.002279(5)</t>
+  </si>
+  <si>
+    <t>0.035055(15)</t>
+  </si>
+  <si>
+    <t>21.672474(144)</t>
+  </si>
+  <si>
+    <t>1755.779297(631)</t>
+  </si>
+  <si>
+    <t>216760.859375(3148)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,12 +101,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,9 +139,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -114,14 +163,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +211,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -231,7 +283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,100 +456,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -506,24 +559,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
